--- a/Excel/RandomFloor.xlsx
+++ b/Excel/RandomFloor.xlsx
@@ -37,13 +37,13 @@
     <t xml:space="preserve">Room_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Probability_1</t>
+    <t xml:space="preserve">RoomProbability_1</t>
   </si>
   <si>
     <t xml:space="preserve">Room_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Probability_2</t>
+    <t xml:space="preserve">RoomProbability_2</t>
   </si>
   <si>
     <t xml:space="preserve">EnemyCount</t>
@@ -160,16 +160,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,221 +374,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="n">
+      <c r="M2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="n">
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="0" t="n">
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="0" t="n">
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Excel/RandomFloor.xlsx
+++ b/Excel/RandomFloor.xlsx
@@ -521,25 +521,25 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,25 +571,25 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="n">
+      <c r="M4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="n">
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>12</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/RandomFloor.xlsx
+++ b/Excel/RandomFloor.xlsx
@@ -369,7 +369,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="A1:P4"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -547,10 +547,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>50</v>
